--- a/data/trans_dic/P70A05_2007-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P70A05_2007-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,08%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,6%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,5%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>49,76; 62,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,79</t>
+          <t>24,23; 41,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>44,65; 55,08</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,18%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,48%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,07%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>46,6; 53,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>32,75; 42,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>42,92; 48,73</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,08%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,19%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,22%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>50,75; 62,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>38,91; 51,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>47,95; 56,55</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,84%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,03%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,19%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>50,24; 55,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>35,53; 42,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>46,1; 50,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P70A05_2007-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P70A05_2007-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>49,76; 62,34</t>
+          <t>50,21; 62,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,23; 41,92</t>
+          <t>24,97; 42,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>44,65; 55,08</t>
+          <t>44,51; 54,28</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>46,6; 53,65</t>
+          <t>46,58; 53,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,75; 42,66</t>
+          <t>32,85; 42,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>42,92; 48,73</t>
+          <t>43,31; 48,96</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>50,75; 62,48</t>
+          <t>51,35; 62,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>38,91; 51,78</t>
+          <t>38,21; 51,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>47,95; 56,55</t>
+          <t>47,77; 56,69</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>50,24; 55,43</t>
+          <t>50,15; 55,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,53; 42,69</t>
+          <t>34,86; 42,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>46,1; 50,3</t>
+          <t>46,04; 50,35</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene un comité de seguridad y salud o bien delegados de prevención en su empresa</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>161880</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>36601</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>198481</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>144930; 179880</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>28042; 47285</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>178481; 217651</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>435853</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>155824</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>591677</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>404563; 465569</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>136607; 176188</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>556299; 628823</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>184217</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>100655</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>284872</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>165727; 202244</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>85114; 115254</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>260600; 309226</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1030</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>781950</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>293080</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1075030</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>742141; 820532</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>261712; 319789</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1026978; 1123227</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>